--- a/Archivos Excel/grupos.xlsx
+++ b/Archivos Excel/grupos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965287EF-00E1-4A10-857A-93CAFA4E3EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4921727C-858C-45BF-B498-B925AE2631A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{72EF902B-6954-441A-81E9-8494162ED732}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{72EF902B-6954-441A-81E9-8494162ED732}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -44,7 +44,13 @@
     <t>#Reincidentes´s Band ID: 430</t>
   </si>
   <si>
-    <t>Rock'</t>
+    <t xml:space="preserve"> 'Rock'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 431</t>
+  </si>
+  <si>
+    <t>#ACDC´s Band ID: 432</t>
   </si>
 </sst>
 </file>
@@ -60,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,13 +92,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,64 +419,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E95739-F35B-45CF-B303-5F10A2FCA1B3}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="D5" sqref="D5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>270</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>430</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>781</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>362</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos Excel/grupos.xlsx
+++ b/Archivos Excel/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4921727C-858C-45BF-B498-B925AE2631A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09BF162-A667-4AFA-B561-A74F70B1A3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{72EF902B-6954-441A-81E9-8494162ED732}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>#ACDC´s Band ID: 432</t>
+  </si>
+  <si>
+    <t>insert into musicgroup values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -96,15 +105,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,99 +428,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E95739-F35B-45CF-B303-5F10A2FCA1B3}">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>270</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" t="str">
+        <f>CONCATENATE($N$1,A1,$N$3,B1,$N$2)</f>
+        <v>insert into musicgroup values(270, 'Jazz');</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J5" si="0">CONCATENATE($N$1,A2,$N$3,B2,$N$2)</f>
+        <v>insert into musicgroup values(110, 'Jazz');</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>110</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>430</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musicgroup values(430, 'Rock');</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>430</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>781</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musicgroup values(781, 'Rock');</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>781</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>362</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into musicgroup values(362, 'Rock');</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos Excel/grupos.xlsx
+++ b/Archivos Excel/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09BF162-A667-4AFA-B561-A74F70B1A3EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398857E-15ED-4A24-89D9-40AC41BCF8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{72EF902B-6954-441A-81E9-8494162ED732}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +48,6 @@
     <t xml:space="preserve"> 'Rock'</t>
   </si>
   <si>
-    <t>#The Rolling Stones´s Band ID: 431</t>
-  </si>
-  <si>
     <t>#ACDC´s Band ID: 432</t>
   </si>
   <si>
@@ -60,14 +58,25 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 781</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -114,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +441,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +470,7 @@
         <v>insert into musicgroup values(270, 'Jazz');</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -483,7 +493,7 @@
         <v>insert into musicgroup values(110, 'Jazz');</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -506,7 +516,7 @@
         <v>insert into musicgroup values(430, 'Rock');</v>
       </c>
       <c r="N3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -517,26 +527,26 @@
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE($N$1,A4,$N$3,B4,$N$2)</f>
         <v>insert into musicgroup values(781, 'Rock');</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
